--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Gnas-Vipr1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Gnas-Vipr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,246 +531,246 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>155.704717502536</v>
+        <v>156.321279</v>
       </c>
       <c r="H2">
-        <v>155.704717502536</v>
+        <v>468.963837</v>
       </c>
       <c r="I2">
-        <v>0.2054364106393654</v>
+        <v>0.2042860988193865</v>
       </c>
       <c r="J2">
-        <v>0.2054364106393654</v>
+        <v>0.2042860988193865</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.142185785746619</v>
+        <v>0.1429513333333333</v>
       </c>
       <c r="N2">
-        <v>0.142185785746619</v>
+        <v>0.428854</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.1058099051556342</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.1058099051556342</v>
       </c>
       <c r="Q2">
-        <v>22.13899760255342</v>
+        <v>22.346335261422</v>
       </c>
       <c r="R2">
-        <v>22.13899760255342</v>
+        <v>201.117017352798</v>
       </c>
       <c r="S2">
-        <v>0.2054364106393654</v>
+        <v>0.0216154927406938</v>
       </c>
       <c r="T2">
-        <v>0.2054364106393654</v>
+        <v>0.0216154927406938</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>331.632421038158</v>
+        <v>156.321279</v>
       </c>
       <c r="H3">
-        <v>331.632421038158</v>
+        <v>468.963837</v>
       </c>
       <c r="I3">
-        <v>0.4375549779255232</v>
+        <v>0.2042860988193865</v>
       </c>
       <c r="J3">
-        <v>0.4375549779255232</v>
+        <v>0.2042860988193865</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.142185785746619</v>
+        <v>0.027509</v>
       </c>
       <c r="N3">
-        <v>0.142185785746619</v>
+        <v>0.082527</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.02036164765346488</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.02036164765346487</v>
       </c>
       <c r="Q3">
-        <v>47.15341636436408</v>
+        <v>4.300242064011001</v>
       </c>
       <c r="R3">
-        <v>47.15341636436408</v>
+        <v>38.702178576099</v>
       </c>
       <c r="S3">
-        <v>0.4375549779255232</v>
+        <v>0.004159601564661255</v>
       </c>
       <c r="T3">
-        <v>0.4375549779255232</v>
+        <v>0.004159601564661255</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>92.58451713478711</v>
+        <v>156.321279</v>
       </c>
       <c r="H4">
-        <v>92.58451713478711</v>
+        <v>468.963837</v>
       </c>
       <c r="I4">
-        <v>0.1221557778468703</v>
+        <v>0.2042860988193865</v>
       </c>
       <c r="J4">
-        <v>0.1221557778468703</v>
+        <v>0.2042860988193865</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.142185785746619</v>
+        <v>0.047884</v>
       </c>
       <c r="N4">
-        <v>0.142185785746619</v>
+        <v>0.143652</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.03544284184225206</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.03544284184225206</v>
       </c>
       <c r="Q4">
-        <v>13.16420231678102</v>
+        <v>7.485288123636001</v>
       </c>
       <c r="R4">
-        <v>13.16420231678102</v>
+        <v>67.36759311272401</v>
       </c>
       <c r="S4">
-        <v>0.1221557778468703</v>
+        <v>0.007240479891026191</v>
       </c>
       <c r="T4">
-        <v>0.1221557778468703</v>
+        <v>0.007240479891026192</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>91.53003224009861</v>
+        <v>156.321279</v>
       </c>
       <c r="H5">
-        <v>91.53003224009861</v>
+        <v>468.963837</v>
       </c>
       <c r="I5">
-        <v>0.1207644931426371</v>
+        <v>0.2042860988193865</v>
       </c>
       <c r="J5">
-        <v>0.1207644931426371</v>
+        <v>0.2042860988193865</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.142185785746619</v>
+        <v>0.9738796666666668</v>
       </c>
       <c r="N5">
-        <v>0.142185785746619</v>
+        <v>2.921639</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.7208475273379799</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.7208475273379799</v>
       </c>
       <c r="Q5">
-        <v>13.01426955347179</v>
+        <v>152.238115085427</v>
       </c>
       <c r="R5">
-        <v>13.01426955347179</v>
+        <v>1370.143035768843</v>
       </c>
       <c r="S5">
-        <v>0.1207644931426371</v>
+        <v>0.147259129203477</v>
       </c>
       <c r="T5">
-        <v>0.1207644931426371</v>
+        <v>0.147259129203477</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -782,52 +782,1292 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>86.470031111476</v>
+        <v>156.321279</v>
       </c>
       <c r="H6">
-        <v>86.470031111476</v>
+        <v>468.963837</v>
       </c>
       <c r="I6">
-        <v>0.1140883404456038</v>
+        <v>0.2042860988193865</v>
       </c>
       <c r="J6">
-        <v>0.1140883404456038</v>
+        <v>0.2042860988193865</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.142185785746619</v>
+        <v>0.1587963333333333</v>
       </c>
       <c r="N6">
-        <v>0.142185785746619</v>
+        <v>0.476389</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.1175380780106689</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.1175380780106689</v>
       </c>
       <c r="Q6">
-        <v>12.29480931711981</v>
+        <v>24.823245927177</v>
       </c>
       <c r="R6">
-        <v>12.29480931711981</v>
+        <v>223.409213344593</v>
       </c>
       <c r="S6">
-        <v>0.1140883404456038</v>
+        <v>0.02401139541952827</v>
       </c>
       <c r="T6">
-        <v>0.1140883404456038</v>
+        <v>0.02401139541952828</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>331.6631673333333</v>
+      </c>
+      <c r="H7">
+        <v>994.9895019999999</v>
+      </c>
+      <c r="I7">
+        <v>0.4334289932249598</v>
+      </c>
+      <c r="J7">
+        <v>0.4334289932249598</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.1429513333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.428854</v>
+      </c>
+      <c r="O7">
+        <v>0.1058099051556342</v>
+      </c>
+      <c r="P7">
+        <v>0.1058099051556342</v>
+      </c>
+      <c r="Q7">
+        <v>47.41169198785645</v>
+      </c>
+      <c r="R7">
+        <v>426.705227890708</v>
+      </c>
+      <c r="S7">
+        <v>0.04586108066483503</v>
+      </c>
+      <c r="T7">
+        <v>0.04586108066483502</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>331.6631673333333</v>
+      </c>
+      <c r="H8">
+        <v>994.9895019999999</v>
+      </c>
+      <c r="I8">
+        <v>0.4334289932249598</v>
+      </c>
+      <c r="J8">
+        <v>0.4334289932249598</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.027509</v>
+      </c>
+      <c r="N8">
+        <v>0.082527</v>
+      </c>
+      <c r="O8">
+        <v>0.02036164765346488</v>
+      </c>
+      <c r="P8">
+        <v>0.02036164765346487</v>
+      </c>
+      <c r="Q8">
+        <v>9.123722070172667</v>
+      </c>
+      <c r="R8">
+        <v>82.11349863155399</v>
+      </c>
+      <c r="S8">
+        <v>0.008825328442842647</v>
+      </c>
+      <c r="T8">
+        <v>0.008825328442842645</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>331.6631673333333</v>
+      </c>
+      <c r="H9">
+        <v>994.9895019999999</v>
+      </c>
+      <c r="I9">
+        <v>0.4334289932249598</v>
+      </c>
+      <c r="J9">
+        <v>0.4334289932249598</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.047884</v>
+      </c>
+      <c r="N9">
+        <v>0.143652</v>
+      </c>
+      <c r="O9">
+        <v>0.03544284184225206</v>
+      </c>
+      <c r="P9">
+        <v>0.03544284184225206</v>
+      </c>
+      <c r="Q9">
+        <v>15.88135910458933</v>
+      </c>
+      <c r="R9">
+        <v>142.932231941304</v>
+      </c>
+      <c r="S9">
+        <v>0.01536195525671879</v>
+      </c>
+      <c r="T9">
+        <v>0.01536195525671879</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>331.6631673333333</v>
+      </c>
+      <c r="H10">
+        <v>994.9895019999999</v>
+      </c>
+      <c r="I10">
+        <v>0.4334289932249598</v>
+      </c>
+      <c r="J10">
+        <v>0.4334289932249598</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.9738796666666668</v>
+      </c>
+      <c r="N10">
+        <v>2.921639</v>
+      </c>
+      <c r="O10">
+        <v>0.7208475273379799</v>
+      </c>
+      <c r="P10">
+        <v>0.7208475273379799</v>
+      </c>
+      <c r="Q10">
+        <v>323.0000148481976</v>
+      </c>
+      <c r="R10">
+        <v>2907.000133633778</v>
+      </c>
+      <c r="S10">
+        <v>0.3124362180428023</v>
+      </c>
+      <c r="T10">
+        <v>0.3124362180428023</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>331.6631673333333</v>
+      </c>
+      <c r="H11">
+        <v>994.9895019999999</v>
+      </c>
+      <c r="I11">
+        <v>0.4334289932249598</v>
+      </c>
+      <c r="J11">
+        <v>0.4334289932249598</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.1587963333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.476389</v>
+      </c>
+      <c r="O11">
+        <v>0.1175380780106689</v>
+      </c>
+      <c r="P11">
+        <v>0.1175380780106689</v>
+      </c>
+      <c r="Q11">
+        <v>52.6668948742531</v>
+      </c>
+      <c r="R11">
+        <v>474.0020538682779</v>
+      </c>
+      <c r="S11">
+        <v>0.05094441081776103</v>
+      </c>
+      <c r="T11">
+        <v>0.05094441081776103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>93.60096233333333</v>
+      </c>
+      <c r="H12">
+        <v>280.802887</v>
+      </c>
+      <c r="I12">
+        <v>0.1223210017416567</v>
+      </c>
+      <c r="J12">
+        <v>0.1223210017416567</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.1429513333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.428854</v>
+      </c>
+      <c r="O12">
+        <v>0.1058099051556342</v>
+      </c>
+      <c r="P12">
+        <v>0.1058099051556342</v>
+      </c>
+      <c r="Q12">
+        <v>13.38038236683311</v>
+      </c>
+      <c r="R12">
+        <v>120.423441301498</v>
+      </c>
+      <c r="S12">
+        <v>0.01294277359282687</v>
+      </c>
+      <c r="T12">
+        <v>0.01294277359282687</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>93.60096233333333</v>
+      </c>
+      <c r="H13">
+        <v>280.802887</v>
+      </c>
+      <c r="I13">
+        <v>0.1223210017416567</v>
+      </c>
+      <c r="J13">
+        <v>0.1223210017416567</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.027509</v>
+      </c>
+      <c r="N13">
+        <v>0.082527</v>
+      </c>
+      <c r="O13">
+        <v>0.02036164765346488</v>
+      </c>
+      <c r="P13">
+        <v>0.02036164765346487</v>
+      </c>
+      <c r="Q13">
+        <v>2.574868872827667</v>
+      </c>
+      <c r="R13">
+        <v>23.173819855449</v>
+      </c>
+      <c r="S13">
+        <v>0.002490657138082478</v>
+      </c>
+      <c r="T13">
+        <v>0.002490657138082478</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>93.60096233333333</v>
+      </c>
+      <c r="H14">
+        <v>280.802887</v>
+      </c>
+      <c r="I14">
+        <v>0.1223210017416567</v>
+      </c>
+      <c r="J14">
+        <v>0.1223210017416567</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.047884</v>
+      </c>
+      <c r="N14">
+        <v>0.143652</v>
+      </c>
+      <c r="O14">
+        <v>0.03544284184225206</v>
+      </c>
+      <c r="P14">
+        <v>0.03544284184225206</v>
+      </c>
+      <c r="Q14">
+        <v>4.481988480369333</v>
+      </c>
+      <c r="R14">
+        <v>40.337896323324</v>
+      </c>
+      <c r="S14">
+        <v>0.004335403918715378</v>
+      </c>
+      <c r="T14">
+        <v>0.004335403918715379</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>93.60096233333333</v>
+      </c>
+      <c r="H15">
+        <v>280.802887</v>
+      </c>
+      <c r="I15">
+        <v>0.1223210017416567</v>
+      </c>
+      <c r="J15">
+        <v>0.1223210017416567</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.9738796666666668</v>
+      </c>
+      <c r="N15">
+        <v>2.921639</v>
+      </c>
+      <c r="O15">
+        <v>0.7208475273379799</v>
+      </c>
+      <c r="P15">
+        <v>0.7208475273379799</v>
+      </c>
+      <c r="Q15">
+        <v>91.1560739968659</v>
+      </c>
+      <c r="R15">
+        <v>820.4046659717931</v>
+      </c>
+      <c r="S15">
+        <v>0.08817479164697797</v>
+      </c>
+      <c r="T15">
+        <v>0.08817479164697799</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>93.60096233333333</v>
+      </c>
+      <c r="H16">
+        <v>280.802887</v>
+      </c>
+      <c r="I16">
+        <v>0.1223210017416567</v>
+      </c>
+      <c r="J16">
+        <v>0.1223210017416567</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.1587963333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.476389</v>
+      </c>
+      <c r="O16">
+        <v>0.1175380780106689</v>
+      </c>
+      <c r="P16">
+        <v>0.1175380780106689</v>
+      </c>
+      <c r="Q16">
+        <v>14.86348961500478</v>
+      </c>
+      <c r="R16">
+        <v>133.771406535043</v>
+      </c>
+      <c r="S16">
+        <v>0.01437737544505402</v>
+      </c>
+      <c r="T16">
+        <v>0.01437737544505402</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>92.30992400000001</v>
+      </c>
+      <c r="H17">
+        <v>276.929772</v>
+      </c>
+      <c r="I17">
+        <v>0.1206338278250273</v>
+      </c>
+      <c r="J17">
+        <v>0.1206338278250273</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.1429513333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.428854</v>
+      </c>
+      <c r="O17">
+        <v>0.1058099051556342</v>
+      </c>
+      <c r="P17">
+        <v>0.1058099051556342</v>
+      </c>
+      <c r="Q17">
+        <v>13.19582671569867</v>
+      </c>
+      <c r="R17">
+        <v>118.762440441288</v>
+      </c>
+      <c r="S17">
+        <v>0.01276425388072725</v>
+      </c>
+      <c r="T17">
+        <v>0.01276425388072725</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>92.30992400000001</v>
+      </c>
+      <c r="H18">
+        <v>276.929772</v>
+      </c>
+      <c r="I18">
+        <v>0.1206338278250273</v>
+      </c>
+      <c r="J18">
+        <v>0.1206338278250273</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.027509</v>
+      </c>
+      <c r="N18">
+        <v>0.082527</v>
+      </c>
+      <c r="O18">
+        <v>0.02036164765346488</v>
+      </c>
+      <c r="P18">
+        <v>0.02036164765346487</v>
+      </c>
+      <c r="Q18">
+        <v>2.539353699316</v>
+      </c>
+      <c r="R18">
+        <v>22.854183293844</v>
+      </c>
+      <c r="S18">
+        <v>0.002456303497261953</v>
+      </c>
+      <c r="T18">
+        <v>0.002456303497261953</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>92.30992400000001</v>
+      </c>
+      <c r="H19">
+        <v>276.929772</v>
+      </c>
+      <c r="I19">
+        <v>0.1206338278250273</v>
+      </c>
+      <c r="J19">
+        <v>0.1206338278250273</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.047884</v>
+      </c>
+      <c r="N19">
+        <v>0.143652</v>
+      </c>
+      <c r="O19">
+        <v>0.03544284184225206</v>
+      </c>
+      <c r="P19">
+        <v>0.03544284184225206</v>
+      </c>
+      <c r="Q19">
+        <v>4.420168400816001</v>
+      </c>
+      <c r="R19">
+        <v>39.78151560734401</v>
+      </c>
+      <c r="S19">
+        <v>0.004275605680427909</v>
+      </c>
+      <c r="T19">
+        <v>0.00427560568042791</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>92.30992400000001</v>
+      </c>
+      <c r="H20">
+        <v>276.929772</v>
+      </c>
+      <c r="I20">
+        <v>0.1206338278250273</v>
+      </c>
+      <c r="J20">
+        <v>0.1206338278250273</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.9738796666666668</v>
+      </c>
+      <c r="N20">
+        <v>2.921639</v>
+      </c>
+      <c r="O20">
+        <v>0.7208475273379799</v>
+      </c>
+      <c r="P20">
+        <v>0.7208475273379799</v>
+      </c>
+      <c r="Q20">
+        <v>89.89875801514536</v>
+      </c>
+      <c r="R20">
+        <v>809.0888221363082</v>
+      </c>
+      <c r="S20">
+        <v>0.08695859650098654</v>
+      </c>
+      <c r="T20">
+        <v>0.08695859650098654</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>92.30992400000001</v>
+      </c>
+      <c r="H21">
+        <v>276.929772</v>
+      </c>
+      <c r="I21">
+        <v>0.1206338278250273</v>
+      </c>
+      <c r="J21">
+        <v>0.1206338278250273</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.1587963333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.476389</v>
+      </c>
+      <c r="O21">
+        <v>0.1175380780106689</v>
+      </c>
+      <c r="P21">
+        <v>0.1175380780106689</v>
+      </c>
+      <c r="Q21">
+        <v>14.65847746147867</v>
+      </c>
+      <c r="R21">
+        <v>131.926297153308</v>
+      </c>
+      <c r="S21">
+        <v>0.01417906826562367</v>
+      </c>
+      <c r="T21">
+        <v>0.01417906826562367</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>91.31228499999999</v>
+      </c>
+      <c r="H22">
+        <v>273.936855</v>
+      </c>
+      <c r="I22">
+        <v>0.1193300783889696</v>
+      </c>
+      <c r="J22">
+        <v>0.1193300783889696</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.1429513333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.428854</v>
+      </c>
+      <c r="O22">
+        <v>0.1058099051556342</v>
+      </c>
+      <c r="P22">
+        <v>0.1058099051556342</v>
+      </c>
+      <c r="Q22">
+        <v>13.05321289046333</v>
+      </c>
+      <c r="R22">
+        <v>117.47891601417</v>
+      </c>
+      <c r="S22">
+        <v>0.01262630427655127</v>
+      </c>
+      <c r="T22">
+        <v>0.01262630427655127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>91.31228499999999</v>
+      </c>
+      <c r="H23">
+        <v>273.936855</v>
+      </c>
+      <c r="I23">
+        <v>0.1193300783889696</v>
+      </c>
+      <c r="J23">
+        <v>0.1193300783889696</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.027509</v>
+      </c>
+      <c r="N23">
+        <v>0.082527</v>
+      </c>
+      <c r="O23">
+        <v>0.02036164765346488</v>
+      </c>
+      <c r="P23">
+        <v>0.02036164765346487</v>
+      </c>
+      <c r="Q23">
+        <v>2.511909648065</v>
+      </c>
+      <c r="R23">
+        <v>22.607186832585</v>
+      </c>
+      <c r="S23">
+        <v>0.002429757010616542</v>
+      </c>
+      <c r="T23">
+        <v>0.002429757010616542</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>91.31228499999999</v>
+      </c>
+      <c r="H24">
+        <v>273.936855</v>
+      </c>
+      <c r="I24">
+        <v>0.1193300783889696</v>
+      </c>
+      <c r="J24">
+        <v>0.1193300783889696</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.047884</v>
+      </c>
+      <c r="N24">
+        <v>0.143652</v>
+      </c>
+      <c r="O24">
+        <v>0.03544284184225206</v>
+      </c>
+      <c r="P24">
+        <v>0.03544284184225206</v>
+      </c>
+      <c r="Q24">
+        <v>4.37239745494</v>
+      </c>
+      <c r="R24">
+        <v>39.35157709446</v>
+      </c>
+      <c r="S24">
+        <v>0.004229397095363789</v>
+      </c>
+      <c r="T24">
+        <v>0.00422939709536379</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>91.31228499999999</v>
+      </c>
+      <c r="H25">
+        <v>273.936855</v>
+      </c>
+      <c r="I25">
+        <v>0.1193300783889696</v>
+      </c>
+      <c r="J25">
+        <v>0.1193300783889696</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.9738796666666668</v>
+      </c>
+      <c r="N25">
+        <v>2.921639</v>
+      </c>
+      <c r="O25">
+        <v>0.7208475273379799</v>
+      </c>
+      <c r="P25">
+        <v>0.7208475273379799</v>
+      </c>
+      <c r="Q25">
+        <v>88.92717767837166</v>
+      </c>
+      <c r="R25">
+        <v>800.3445991053451</v>
+      </c>
+      <c r="S25">
+        <v>0.08601879194373602</v>
+      </c>
+      <c r="T25">
+        <v>0.08601879194373603</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>91.31228499999999</v>
+      </c>
+      <c r="H26">
+        <v>273.936855</v>
+      </c>
+      <c r="I26">
+        <v>0.1193300783889696</v>
+      </c>
+      <c r="J26">
+        <v>0.1193300783889696</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.1587963333333333</v>
+      </c>
+      <c r="N26">
+        <v>0.476389</v>
+      </c>
+      <c r="O26">
+        <v>0.1175380780106689</v>
+      </c>
+      <c r="P26">
+        <v>0.1175380780106689</v>
+      </c>
+      <c r="Q26">
+        <v>14.50005604628833</v>
+      </c>
+      <c r="R26">
+        <v>130.500504416595</v>
+      </c>
+      <c r="S26">
+        <v>0.01402582806270194</v>
+      </c>
+      <c r="T26">
+        <v>0.01402582806270195</v>
       </c>
     </row>
   </sheetData>
